--- a/data_02-01-2024.xlsx
+++ b/data_02-01-2024.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,6 +903,21 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cla</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>guytety</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_02-01-2024.xlsx
+++ b/data_02-01-2024.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -918,6 +918,21 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>kudifjids</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>fsdfsdwe</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_02-01-2024.xlsx
+++ b/data_02-01-2024.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -933,6 +933,21 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>dfds</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>fdsf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
